--- a/unit2_file/unit2_file.xlsx
+++ b/unit2_file/unit2_file.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE09B58-BD63-4EC1-8D34-9AD3B4986001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="File trong linux" sheetId="1" r:id="rId1"/>
-    <sheet name="Phân loại tệp tin" sheetId="2" r:id="rId2"/>
-    <sheet name="file thực, ảo, init file system" sheetId="3" r:id="rId3"/>
-    <sheet name="Các hàm syscall với file" sheetId="4" r:id="rId4"/>
-    <sheet name="Các hàm thao tác với string" sheetId="5" r:id="rId5"/>
-    <sheet name="file table của process" sheetId="6" r:id="rId6"/>
-    <sheet name="Cache của file" sheetId="7" r:id="rId7"/>
+    <sheet name="Muc luc" sheetId="9" r:id="rId1"/>
+    <sheet name="File trong linux" sheetId="1" r:id="rId2"/>
+    <sheet name="Phân loại tệp tin" sheetId="2" r:id="rId3"/>
+    <sheet name="file thực, ảo, init file system" sheetId="3" r:id="rId4"/>
+    <sheet name="Các hàm syscall với file" sheetId="4" r:id="rId5"/>
+    <sheet name="Các hàm thao tác với string" sheetId="5" r:id="rId6"/>
+    <sheet name="file table của process" sheetId="6" r:id="rId7"/>
+    <sheet name="Cache của file" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="469">
   <si>
     <t>1. Trong Linux, mọi thứ đều là file</t>
   </si>
@@ -54,7 +56,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -72,7 +74,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,7 +92,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,7 +165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,7 +215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -244,7 +246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,7 +283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,7 +301,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +337,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,7 +377,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,7 +413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -429,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,7 +449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,7 +488,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +506,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -522,7 +524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -537,7 +539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -555,7 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -573,7 +575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -608,7 +610,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,7 +639,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -666,7 +668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,7 +691,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -707,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,7 +727,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,7 +745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,7 +773,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -790,7 +792,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -800,7 +802,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -829,7 +831,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -847,7 +849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -865,7 +867,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -883,7 +885,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -901,7 +903,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -919,7 +921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -945,7 +947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -970,7 +972,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -986,7 +988,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -996,7 +998,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1022,7 +1024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1040,7 +1042,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1060,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1076,7 +1078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,7 +1096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1125,7 +1127,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1141,7 +1143,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1151,7 +1153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1169,7 +1171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1184,7 +1186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1199,7 +1201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1229,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1243,7 +1245,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1253,7 +1255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1274,7 +1276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1289,7 +1291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1312,7 +1314,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1327,7 +1329,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,7 +1344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1357,7 +1359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1382,7 +1384,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1398,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1408,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,7 +1446,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1467,7 +1469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1483,7 +1485,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1493,7 +1495,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1511,7 +1513,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1539,7 +1541,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1554,7 +1556,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1565,7 +1567,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1575,7 +1577,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1596,7 +1598,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1611,7 +1613,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1626,7 +1628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1654,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1677,7 +1679,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1700,7 +1702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1718,7 +1720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1729,7 +1731,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1739,7 +1741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1768,7 +1770,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1783,7 +1785,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1798,7 +1800,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1813,7 +1815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1837,7 +1839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1852,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1867,7 +1869,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1882,7 +1884,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1900,7 +1902,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1918,7 +1920,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1936,7 +1938,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1951,7 +1953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1976,7 +1978,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1986,7 +1988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2004,7 +2006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2019,7 +2021,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2034,7 +2036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,7 +2051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2072,7 +2074,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2090,7 +2092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2108,7 +2110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2123,7 +2125,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2141,7 +2143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2168,7 +2170,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2186,7 +2188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2201,7 +2203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2216,7 +2218,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2249,7 +2251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2264,7 +2266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2279,7 +2281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2309,7 +2311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2324,7 +2326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2342,7 +2344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2357,7 +2359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2372,7 +2374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2387,7 +2389,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2402,7 +2404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2426,7 +2428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2447,7 +2449,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2477,7 +2479,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2497,7 +2499,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2507,7 +2509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2525,7 +2527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2543,7 +2545,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2566,7 +2568,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2592,7 +2594,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2617,7 +2619,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2656,7 +2658,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2666,7 +2668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2696,7 +2698,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2706,7 +2708,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2724,7 +2726,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2742,7 +2744,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2760,7 +2762,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2783,7 +2785,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2801,7 +2803,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2826,7 +2828,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2836,7 +2838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2873,7 +2875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2891,7 +2893,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2909,7 +2911,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2942,7 +2944,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2982,7 +2984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3000,7 +3002,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3030,7 +3032,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3040,7 +3042,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3106,7 +3108,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3151,7 +3153,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3161,7 +3163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3204,7 +3206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3241,7 +3243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3265,7 +3267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3280,7 +3282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3303,7 +3305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3321,7 +3323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3339,7 +3341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3357,7 +3359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3380,7 +3382,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3403,7 +3405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3421,7 +3423,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3439,7 +3441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3457,7 +3459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3475,7 +3477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3490,7 +3492,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3505,7 +3507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3523,7 +3525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3541,7 +3543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3559,7 +3561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3574,7 +3576,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3595,7 +3597,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3618,7 +3620,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3636,7 +3638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3659,7 +3661,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3719,7 +3721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3742,7 +3744,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3760,7 +3762,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3783,7 +3785,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3801,7 +3803,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3819,7 +3821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3834,7 +3836,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3857,7 +3859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3875,7 +3877,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3890,7 +3892,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3908,7 +3910,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3926,7 +3928,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3952,7 +3954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3977,7 +3979,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3993,7 +3995,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4003,7 +4005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4019,7 +4021,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4029,7 +4031,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4045,7 +4047,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4055,7 +4057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4071,7 +4073,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4081,7 +4083,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4097,7 +4099,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4107,7 +4109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4151,7 +4153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4169,7 +4171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4184,7 +4186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4199,7 +4201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4231,7 +4233,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4308,7 +4310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4323,7 +4325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4338,7 +4340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4364,7 +4366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4380,7 +4382,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4390,7 +4392,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4408,7 +4410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4426,7 +4428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4463,7 +4465,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4473,7 +4475,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4484,7 +4486,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4494,7 +4496,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4510,7 +4512,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4520,7 +4522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4536,7 +4538,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4546,7 +4548,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4557,7 +4559,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4567,7 +4569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4582,7 +4584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4597,7 +4599,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4613,7 +4615,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4623,7 +4625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4655,7 +4657,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4666,7 +4668,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4676,7 +4678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4687,7 +4689,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4697,7 +4699,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4730,7 +4732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4761,7 +4763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4800,7 +4802,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4820,7 +4822,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4845,7 +4847,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4885,7 +4887,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4895,7 +4897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4914,7 +4916,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4924,7 +4926,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4940,7 +4942,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4950,7 +4952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4969,7 +4971,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4980,7 +4982,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4990,7 +4992,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5001,7 +5003,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5011,7 +5013,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5033,7 +5035,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5043,7 +5045,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5070,7 +5072,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5080,7 +5082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5112,7 +5114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5123,7 +5125,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5148,7 +5150,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5163,7 +5165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5174,7 +5176,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5184,7 +5186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5200,7 +5202,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5233,7 +5235,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5299,7 +5301,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5314,7 +5316,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5325,7 +5327,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5335,7 +5337,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5346,7 +5348,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5356,7 +5358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5367,7 +5369,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5377,7 +5379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5413,7 +5415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5424,7 +5426,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5434,7 +5436,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5445,7 +5447,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5455,7 +5457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5466,7 +5468,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5482,7 +5484,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5492,7 +5494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5503,7 +5505,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5534,7 +5536,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5553,7 +5555,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5563,7 +5565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5581,7 +5583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5607,7 +5609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5647,7 +5649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5665,7 +5667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5690,7 +5692,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5713,7 +5715,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5741,7 +5743,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5761,7 +5763,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5782,7 +5784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5805,7 +5807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5823,7 +5825,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5834,7 +5836,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5861,7 +5863,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5871,7 +5873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5889,7 +5891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5910,7 +5912,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5926,7 +5928,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5936,7 +5938,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5947,7 +5949,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5957,7 +5959,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5968,7 +5970,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5978,7 +5980,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5994,7 +5996,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6004,7 +6006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6020,7 +6022,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6030,7 +6032,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6056,7 +6058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6074,7 +6076,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6090,7 +6092,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6100,7 +6102,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6116,7 +6118,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6126,7 +6128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6142,7 +6144,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6152,7 +6154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6180,7 +6182,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6212,7 +6214,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6223,7 +6225,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6233,7 +6235,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6249,7 +6251,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6259,7 +6261,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6277,7 +6279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6288,7 +6290,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6298,7 +6300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6314,7 +6316,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6324,7 +6326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6340,7 +6342,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6350,7 +6352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6372,7 +6374,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6382,7 +6384,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6401,7 +6403,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6411,7 +6413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6422,7 +6424,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6432,7 +6434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6450,7 +6452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6469,7 +6471,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6479,7 +6481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6498,7 +6500,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6508,7 +6510,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6526,7 +6528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6537,7 +6539,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6547,7 +6549,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6566,7 +6568,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6576,7 +6578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6595,7 +6597,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6605,7 +6607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6621,7 +6623,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6631,7 +6633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6647,7 +6649,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6657,7 +6659,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6694,7 +6696,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6704,7 +6706,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6715,7 +6717,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6725,7 +6727,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6744,7 +6746,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6754,7 +6756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6791,7 +6793,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6806,7 +6808,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6821,7 +6823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6837,7 +6839,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6847,7 +6849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6865,7 +6867,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6992,7 +6994,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -7012,7 +7014,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -7032,23 +7034,44 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>File trong linux'</t>
+  </si>
+  <si>
+    <t>Phân loại tệp tin'</t>
+  </si>
+  <si>
+    <t>file thực, ảo, init file system'</t>
+  </si>
+  <si>
+    <t>Các hàm syscall với file'</t>
+  </si>
+  <si>
+    <t>Các hàm thao tác với string'</t>
+  </si>
+  <si>
+    <t>file table của process'</t>
+  </si>
+  <si>
+    <t>Cache của file'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7056,7 +7079,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7069,7 +7092,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7077,7 +7100,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7085,7 +7108,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7093,7 +7116,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7107,14 +7130,14 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7122,8 +7145,25 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7265,10 +7305,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -7331,7 +7372,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7345,6 +7385,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7357,47 +7412,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7425,7 +7444,13 @@
     <xdr:ext cx="7011378" cy="2505425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7456,14 +7481,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6582694" cy="1047896"/>
+    <xdr:ext cx="6173904" cy="982821"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7476,8 +7507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="665630" y="31317080"/>
-          <a:ext cx="6582694" cy="1047896"/>
+          <a:off x="1135380" y="1343810"/>
+          <a:ext cx="6173904" cy="982821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7489,14 +7520,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44127</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6554115" cy="3162741"/>
+    <xdr:ext cx="6051195" cy="2920053"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7509,8 +7546,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="33928050"/>
-          <a:ext cx="6554115" cy="3162741"/>
+          <a:off x="1173480" y="3831267"/>
+          <a:ext cx="6051195" cy="2920053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7522,14 +7559,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>36976</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6592220" cy="695422"/>
+    <xdr:ext cx="6241700" cy="658445"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7542,8 +7585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="37928550"/>
-          <a:ext cx="6592220" cy="695422"/>
+          <a:off x="1021080" y="7710316"/>
+          <a:ext cx="6241700" cy="658445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7555,14 +7598,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>460010</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6611273" cy="5020376"/>
+    <xdr:ext cx="6151263" cy="4671060"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7575,8 +7624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="40214550"/>
-          <a:ext cx="6611273" cy="5020376"/>
+          <a:off x="1130570" y="9867900"/>
+          <a:ext cx="6151263" cy="4671060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7588,14 +7637,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>61984</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6582694" cy="695422"/>
+    <xdr:ext cx="5995954" cy="633437"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7608,8 +7663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="46120050"/>
-          <a:ext cx="6582694" cy="695422"/>
+          <a:off x="1257300" y="15568684"/>
+          <a:ext cx="5995954" cy="633437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7621,14 +7676,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>623664</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6554115" cy="4791744"/>
+    <xdr:ext cx="5930451" cy="4335780"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7641,8 +7702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="48215550"/>
-          <a:ext cx="6554115" cy="4791744"/>
+          <a:off x="1294224" y="17487900"/>
+          <a:ext cx="5930451" cy="4335780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7654,14 +7715,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6592220" cy="695422"/>
+    <xdr:ext cx="6135020" cy="647191"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7674,8 +7741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="53930550"/>
-          <a:ext cx="6592220" cy="695422"/>
+          <a:off x="1127760" y="22989540"/>
+          <a:ext cx="6135020" cy="647191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7687,14 +7754,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95489</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6582694" cy="4782217"/>
+    <xdr:ext cx="5973094" cy="4339352"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7707,8 +7780,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="56597550"/>
-          <a:ext cx="6582694" cy="4782217"/>
+          <a:off x="1280160" y="25630109"/>
+          <a:ext cx="5973094" cy="4339352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7719,15 +7792,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:rowOff>39068</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6582694" cy="781159"/>
+    <xdr:ext cx="4806786" cy="570415"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7740,8 +7819,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632012" y="62323755"/>
-          <a:ext cx="6582694" cy="781159"/>
+          <a:off x="1554480" y="31037228"/>
+          <a:ext cx="4806786" cy="570415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7765,7 +7844,13 @@
     <xdr:ext cx="7668695" cy="409632"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7798,7 +7883,13 @@
     <xdr:ext cx="7278116" cy="6820852"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7836,7 +7927,13 @@
     <xdr:ext cx="8391095" cy="4703289"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7869,7 +7966,13 @@
     <xdr:ext cx="4426644" cy="3559808"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7907,7 +8010,13 @@
     <xdr:ext cx="7735380" cy="5401429"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7940,7 +8049,13 @@
     <xdr:ext cx="18214342" cy="9621593"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8228,26 +8343,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE151672-633A-4AF2-83C1-1A51BB38449C}">
+  <dimension ref="B2:B14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="44" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="44" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'File trong linux'!A1" display="File trong linux'" xr:uid="{C27B873B-8111-49BB-99B1-FCCB353B89E1}"/>
+    <hyperlink ref="B4" location="'Phân loại tệp tin'!A1" display="Phân loại tệp tin'" xr:uid="{443832F5-F415-4680-842A-FAEDE8698552}"/>
+    <hyperlink ref="B6" location="'file thực, ảo, init file system'!A1" display="'file thực, ảo, init file system'" xr:uid="{F238A41D-3FE7-41E4-9E11-A43A31131FDB}"/>
+    <hyperlink ref="B8" location="'Các hàm syscall với file'!A1" display="'Các hàm syscall với file'" xr:uid="{51DD2F3D-427A-4EA2-A33A-B3E379825A3F}"/>
+    <hyperlink ref="B10" location="'Các hàm thao tác với string'!A1" display="'Các hàm thao tác với string'" xr:uid="{4C5E5321-B618-40CE-86CE-CC023B56E99B}"/>
+    <hyperlink ref="B12" location="'file table của process'!A1" display="'file table của process'" xr:uid="{9EDD5DC6-3B25-48C8-A97C-73F65E200CAD}"/>
+    <hyperlink ref="B14" location="'Cache của file'!A1" display="'Cache của file'" xr:uid="{64103EAC-1594-461F-934D-77837C0274D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" customWidth="1"/>
     <col min="21" max="21" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5">
+    <row r="2" spans="1:2" ht="28.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -8317,7 +8492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="28.5">
+    <row r="17" spans="2:4" ht="28.2">
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
@@ -8342,7 +8517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" ht="14.4">
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -8372,7 +8547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="23.25">
+    <row r="28" spans="2:4" ht="22.8">
       <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
@@ -8402,7 +8577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:4" ht="23.25">
+    <row r="34" spans="4:4" ht="22.8">
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
@@ -8447,7 +8622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="4:4" ht="23.25">
+    <row r="43" spans="4:4" ht="22.8">
       <c r="D43" s="4" t="s">
         <v>21</v>
       </c>
@@ -8477,7 +8652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="23.25">
+    <row r="49" spans="4:4" ht="22.8">
       <c r="D49" s="4" t="s">
         <v>24</v>
       </c>
@@ -8518,22 +8693,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25">
+    <row r="2" spans="1:2" ht="22.8">
       <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
@@ -8573,7 +8748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25">
+    <row r="10" spans="1:2" ht="22.8">
       <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
@@ -8618,7 +8793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="23.25">
+    <row r="19" spans="2:2" ht="22.8">
       <c r="B19" s="4" t="s">
         <v>60</v>
       </c>
@@ -8673,7 +8848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="23.25">
+    <row r="30" spans="2:2" ht="22.8">
       <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
@@ -8738,7 +8913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="23.25">
+    <row r="43" spans="2:2" ht="22.8">
       <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
@@ -8778,7 +8953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="23.25">
+    <row r="51" spans="2:2" ht="22.8">
       <c r="B51" s="4" t="s">
         <v>82</v>
       </c>
@@ -8838,7 +9013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="23.25">
+    <row r="63" spans="2:2" ht="22.8">
       <c r="B63" s="4" t="s">
         <v>91</v>
       </c>
@@ -8903,22 +9078,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5">
+    <row r="1" spans="1:1" ht="30">
       <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="31.5">
+    <row r="16" spans="1:1" ht="30">
       <c r="A16" s="7" t="s">
         <v>101</v>
       </c>
@@ -8950,671 +9125,6 @@
       <c r="B22" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B177"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
-      <c r="A1" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.25">
-      <c r="B2" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="B3" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="B5" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="18">
-      <c r="B19" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="2:2" ht="23.25">
-      <c r="B37" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="18">
-      <c r="B38" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="18">
-      <c r="B40" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="18">
-      <c r="B48" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="18">
-      <c r="B52" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="14"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="14"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="14"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="14"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="14"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="14"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="14"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="14"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="14"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="14"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="12"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="14"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="14"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="14"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="14"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="14"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="14"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="14"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="14"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="14"/>
-    </row>
-    <row r="80" spans="2:2" ht="23.25">
-      <c r="B80" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="18">
-      <c r="B81" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="18">
-      <c r="B83" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="14"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="14"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="14"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="12"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="18">
-      <c r="B91" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" ht="18">
-      <c r="B94" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="12"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="14"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="14"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="14"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="14"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="14"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="14"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="12"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="14"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="14"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="14"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="14"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="14"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="14"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="12"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="14"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="14"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="14"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="14"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="14"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="14"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="14"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="12"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="14"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="14"/>
-    </row>
-    <row r="120" spans="2:2" ht="23.25">
-      <c r="B120" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" ht="18">
-      <c r="B121" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" ht="18">
-      <c r="B124" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="14"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="14"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="14"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="12"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" ht="18">
-      <c r="B135" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" ht="18">
-      <c r="B138" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="12"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="14"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="14"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="14"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="14"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="14"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="12"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="14"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="14"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="14"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="14"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="14"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="14"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="12"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="14"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="14"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="14"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="14"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="14"/>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="14"/>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="14"/>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="14"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="14"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="14"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="14"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="14"/>
-    </row>
-    <row r="165" spans="2:2" ht="23.25">
-      <c r="B165" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" ht="18">
-      <c r="B166" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" ht="18">
-      <c r="B168" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="12"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="14"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="14"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="14"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="18">
-      <c r="B174" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" ht="23.25">
-      <c r="B177" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9623,1968 +9133,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B177"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.8">
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.399999999999999">
+      <c r="B3" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999">
+      <c r="B5" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17.399999999999999">
+      <c r="B19" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="2:2" ht="22.8">
+      <c r="B37" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="17.399999999999999">
+      <c r="B38" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="17.399999999999999">
+      <c r="B40" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="17.399999999999999">
+      <c r="B48" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="17.399999999999999">
+      <c r="B52" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="14"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="14"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="14"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="2:2" ht="22.8">
+      <c r="B80" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="17.399999999999999">
+      <c r="B81" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="17.399999999999999">
+      <c r="B83" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="17.399999999999999">
+      <c r="B91" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="17.399999999999999">
+      <c r="B94" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="14"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="14"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="14"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="14"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="14"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="14"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="14"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="14"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="14"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="14"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="14"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="14"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="14"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="14"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="14"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="14"/>
+    </row>
+    <row r="120" spans="2:2" ht="22.8">
+      <c r="B120" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="17.399999999999999">
+      <c r="B121" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="17.399999999999999">
+      <c r="B124" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="12"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="17.399999999999999">
+      <c r="B135" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="17.399999999999999">
+      <c r="B138" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="12"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="12"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="12"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="14"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="14"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="14"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="14"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="14"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="14"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="14"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165" spans="2:2" ht="22.8">
+      <c r="B165" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="17.399999999999999">
+      <c r="B166" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="17.399999999999999">
+      <c r="B168" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="12"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="14"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="14"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="14"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="17.399999999999999">
+      <c r="B174" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="22.8">
+      <c r="B177" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5">
+    <row r="1" spans="1:27" ht="30">
       <c r="A1" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="37"/>
-    </row>
-    <row r="3" spans="1:27" ht="23.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="32"/>
+    </row>
+    <row r="3" spans="1:27" ht="22.8">
+      <c r="A3" s="33"/>
+      <c r="B3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39" t="s">
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="40"/>
+      <c r="AA3" s="34"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="38"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="40"/>
-    </row>
-    <row r="5" spans="1:27" ht="18">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41" t="s">
+      <c r="A4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="33"/>
+      <c r="AA4" s="34"/>
+    </row>
+    <row r="5" spans="1:27" ht="17.399999999999999">
+      <c r="A5" s="33"/>
+      <c r="B5" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="41" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="40"/>
-    </row>
-    <row r="6" spans="1:27" ht="18">
-      <c r="A6" s="38"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42" t="s">
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="1:27" ht="17.399999999999999">
+      <c r="A6" s="33"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="34"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="40"/>
+      <c r="AA6" s="34"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="38"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="33"/>
+      <c r="C7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="49" t="s">
+      <c r="L7" s="34"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="40"/>
+      <c r="AA7" s="34"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="38"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="43" t="s">
+      <c r="A8" s="33"/>
+      <c r="C8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="49" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="33"/>
+      <c r="O8" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="40"/>
+      <c r="AA8" s="34"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="38"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="43" t="s">
+      <c r="A9" s="33"/>
+      <c r="C9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="49" t="s">
+      <c r="L9" s="34"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="40"/>
-    </row>
-    <row r="10" spans="1:27" ht="18">
-      <c r="A10" s="38"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="44" t="s">
+      <c r="AA9" s="34"/>
+    </row>
+    <row r="10" spans="1:27" ht="17.399999999999999">
+      <c r="A10" s="33"/>
+      <c r="C10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="41" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="40"/>
+      <c r="AA10" s="34"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="38"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="44" t="s">
+      <c r="A11" s="33"/>
+      <c r="C11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="40"/>
+      <c r="AA11" s="34"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="38"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="45" t="s">
+      <c r="A12" s="33"/>
+      <c r="D12" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="42" t="s">
+      <c r="L12" s="34"/>
+      <c r="M12" s="33"/>
+      <c r="O12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="40"/>
+      <c r="AA12" s="34"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="38"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="45" t="s">
+      <c r="A13" s="33"/>
+      <c r="D13" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="42" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="33"/>
+      <c r="O13" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="40"/>
-    </row>
-    <row r="14" spans="1:27" ht="18">
-      <c r="A14" s="38"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="45" t="s">
+      <c r="AA13" s="34"/>
+    </row>
+    <row r="14" spans="1:27" ht="17.399999999999999">
+      <c r="A14" s="33"/>
+      <c r="D14" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="41" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="40"/>
+      <c r="O14" s="1"/>
+      <c r="AA14" s="34"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="38"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="45" t="s">
+      <c r="A15" s="33"/>
+      <c r="D15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="45" t="s">
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="O15" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="40"/>
+      <c r="AA15" s="34"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="38"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="42" t="s">
+      <c r="A16" s="33"/>
+      <c r="C16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="45" t="s">
+      <c r="L16" s="34"/>
+      <c r="M16" s="33"/>
+      <c r="O16" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="40"/>
+      <c r="AA16" s="34"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="38"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="45" t="s">
+      <c r="A17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="33"/>
+      <c r="O17" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="40"/>
-    </row>
-    <row r="18" spans="1:27" ht="18">
-      <c r="A18" s="38"/>
-      <c r="B18" s="41" t="s">
+      <c r="AA17" s="34"/>
+    </row>
+    <row r="18" spans="1:27" ht="17.399999999999999">
+      <c r="A18" s="33"/>
+      <c r="B18" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="45" t="s">
+      <c r="L18" s="34"/>
+      <c r="M18" s="33"/>
+      <c r="O18" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="40"/>
+      <c r="AA18" s="34"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="38"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="45" t="s">
+      <c r="L19" s="34"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="40"/>
+      <c r="AA19" s="34"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="38"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="42" t="s">
+      <c r="A20" s="33"/>
+      <c r="C20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45" t="s">
+      <c r="L20" s="34"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="40"/>
+      <c r="AA20" s="34"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="38"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="45" t="s">
+      <c r="A21" s="33"/>
+      <c r="D21" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="40"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="12"/>
+      <c r="AA21" s="34"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="38"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="45" t="s">
+      <c r="A22" s="33"/>
+      <c r="D22" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="45" t="s">
+      <c r="L22" s="34"/>
+      <c r="M22" s="33"/>
+      <c r="O22" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="40"/>
+      <c r="AA22" s="34"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="38"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="45" t="s">
+      <c r="A23" s="33"/>
+      <c r="D23" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="45" t="s">
+      <c r="L23" s="34"/>
+      <c r="M23" s="33"/>
+      <c r="O23" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="40"/>
+      <c r="AA23" s="34"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="38"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="45" t="s">
+      <c r="A24" s="33"/>
+      <c r="D24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="45" t="s">
+      <c r="L24" s="34"/>
+      <c r="M24" s="33"/>
+      <c r="O24" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="40"/>
+      <c r="AA24" s="34"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="38"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="42" t="s">
+      <c r="A25" s="33"/>
+      <c r="C25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="45" t="s">
+      <c r="L25" s="34"/>
+      <c r="M25" s="33"/>
+      <c r="O25" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="40"/>
+      <c r="AA25" s="34"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="38"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="45" t="s">
+      <c r="A26" s="33"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="33"/>
+      <c r="O26" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="40"/>
-    </row>
-    <row r="27" spans="1:27" ht="18">
-      <c r="A27" s="38"/>
-      <c r="B27" s="41" t="s">
+      <c r="AA26" s="34"/>
+    </row>
+    <row r="27" spans="1:27" ht="17.399999999999999">
+      <c r="A27" s="33"/>
+      <c r="B27" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="45" t="s">
+      <c r="L27" s="34"/>
+      <c r="M27" s="33"/>
+      <c r="O27" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="40"/>
+      <c r="AA27" s="34"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="45" t="s">
+      <c r="L28" s="34"/>
+      <c r="M28" s="33"/>
+      <c r="O28" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="40"/>
+      <c r="AA28" s="34"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="38"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="45" t="s">
+      <c r="A29" s="33"/>
+      <c r="D29" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="45" t="s">
+      <c r="L29" s="34"/>
+      <c r="M29" s="33"/>
+      <c r="O29" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="40"/>
+      <c r="AA29" s="34"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="38"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="45" t="s">
+      <c r="A30" s="33"/>
+      <c r="D30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="45" t="s">
+      <c r="L30" s="34"/>
+      <c r="M30" s="33"/>
+      <c r="O30" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="40"/>
+      <c r="AA30" s="34"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="38"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="45" t="s">
+      <c r="A31" s="33"/>
+      <c r="D31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="40"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="33"/>
+      <c r="O31" s="12"/>
+      <c r="AA31" s="34"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="38"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="45" t="s">
+      <c r="A32" s="33"/>
+      <c r="C32" s="1"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="33"/>
+      <c r="O32" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="40"/>
-    </row>
-    <row r="33" spans="1:27" ht="23.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="42" t="s">
+      <c r="AA32" s="34"/>
+    </row>
+    <row r="33" spans="1:27" ht="22.8">
+      <c r="A33" s="33"/>
+      <c r="C33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="39" t="s">
+      <c r="L33" s="34"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="40"/>
-    </row>
-    <row r="34" spans="1:27" ht="18">
-      <c r="A34" s="38"/>
-      <c r="B34" s="41" t="s">
+      <c r="AA33" s="34"/>
+    </row>
+    <row r="34" spans="1:27" ht="17.399999999999999">
+      <c r="A34" s="33"/>
+      <c r="B34" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="40"/>
-    </row>
-    <row r="35" spans="1:27" ht="18">
-      <c r="A35" s="38"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42" t="s">
+      <c r="L34" s="34"/>
+      <c r="M34" s="33"/>
+      <c r="AA34" s="34"/>
+    </row>
+    <row r="35" spans="1:27" ht="17.399999999999999">
+      <c r="A35" s="33"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="41" t="s">
+      <c r="L35" s="34"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="45" t="s">
+      <c r="P35" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="40"/>
-    </row>
-    <row r="36" spans="1:27" ht="18">
-      <c r="A36" s="38"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="42" t="s">
+      <c r="AA35" s="34"/>
+    </row>
+    <row r="36" spans="1:27" ht="17.399999999999999">
+      <c r="A36" s="33"/>
+      <c r="C36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="41" t="s">
+      <c r="L36" s="34"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="40"/>
+      <c r="AA36" s="34"/>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="38"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="45" t="s">
+      <c r="A37" s="33"/>
+      <c r="D37" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="49" t="s">
+      <c r="L37" s="34"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="40"/>
+      <c r="AA37" s="34"/>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="38"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="45" t="s">
+      <c r="A38" s="33"/>
+      <c r="D38" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="49" t="s">
+      <c r="L38" s="34"/>
+      <c r="M38" s="33"/>
+      <c r="O38" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="40"/>
+      <c r="AA38" s="34"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="38"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="49" t="s">
+      <c r="A39" s="33"/>
+      <c r="C39" s="1"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="40"/>
-    </row>
-    <row r="40" spans="1:27" ht="18">
-      <c r="A40" s="38"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="42" t="s">
+      <c r="AA39" s="34"/>
+    </row>
+    <row r="40" spans="1:27" ht="17.399999999999999">
+      <c r="A40" s="33"/>
+      <c r="C40" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="41" t="s">
+      <c r="L40" s="34"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="40"/>
+      <c r="AA40" s="34"/>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="38"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="43" t="s">
+      <c r="A41" s="33"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="40"/>
-    </row>
-    <row r="42" spans="1:27" ht="23.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39" t="s">
+      <c r="AA41" s="34"/>
+    </row>
+    <row r="42" spans="1:27" ht="22.8">
+      <c r="A42" s="33"/>
+      <c r="B42" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="42" t="s">
+      <c r="L42" s="34"/>
+      <c r="M42" s="33"/>
+      <c r="O42" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="40"/>
+      <c r="AA42" s="34"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="38"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="42" t="s">
+      <c r="A43" s="33"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="40"/>
-    </row>
-    <row r="44" spans="1:27" ht="18">
-      <c r="A44" s="38"/>
-      <c r="B44" s="41" t="s">
+      <c r="AA43" s="34"/>
+    </row>
+    <row r="44" spans="1:27" ht="17.399999999999999">
+      <c r="A44" s="33"/>
+      <c r="B44" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="41" t="s">
+      <c r="L44" s="34"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="40"/>
+      <c r="AA44" s="34"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="38"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="42" t="s">
+      <c r="A45" s="33"/>
+      <c r="C45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="45" t="s">
+      <c r="L45" s="34"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="40"/>
+      <c r="AA45" s="34"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="38"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="42" t="s">
+      <c r="A46" s="33"/>
+      <c r="C46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45" t="s">
+      <c r="L46" s="34"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="40"/>
+      <c r="AA46" s="34"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="38"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="45" t="s">
+      <c r="A47" s="33"/>
+      <c r="D47" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45" t="s">
+      <c r="L47" s="34"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="40"/>
-    </row>
-    <row r="48" spans="1:27" ht="18">
-      <c r="A48" s="38"/>
-      <c r="B48" s="41" t="s">
+      <c r="AA47" s="34"/>
+    </row>
+    <row r="48" spans="1:27" ht="17.399999999999999">
+      <c r="A48" s="33"/>
+      <c r="B48" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="45" t="s">
+      <c r="L48" s="34"/>
+      <c r="M48" s="33"/>
+      <c r="O48" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="40"/>
+      <c r="AA48" s="34"/>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="38"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="42" t="s">
+      <c r="A49" s="33"/>
+      <c r="C49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="45" t="s">
+      <c r="L49" s="34"/>
+      <c r="M49" s="33"/>
+      <c r="O49" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="40"/>
+      <c r="AA49" s="34"/>
     </row>
     <row r="50" spans="1:27">
-      <c r="A50" s="38"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="42" t="s">
+      <c r="A50" s="33"/>
+      <c r="C50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="45" t="s">
+      <c r="L50" s="34"/>
+      <c r="M50" s="33"/>
+      <c r="O50" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="40"/>
+      <c r="AA50" s="34"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="38"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="45" t="s">
+      <c r="A51" s="33"/>
+      <c r="D51" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="40"/>
-    </row>
-    <row r="52" spans="1:27" ht="18">
-      <c r="A52" s="38"/>
-      <c r="B52" s="41" t="s">
+      <c r="L51" s="34"/>
+      <c r="M51" s="33"/>
+      <c r="O51" s="12"/>
+      <c r="AA51" s="34"/>
+    </row>
+    <row r="52" spans="1:27" ht="17.399999999999999">
+      <c r="A52" s="33"/>
+      <c r="B52" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="45" t="s">
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="O52" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
-      <c r="AA52" s="40"/>
+      <c r="AA52" s="34"/>
     </row>
     <row r="53" spans="1:27">
-      <c r="A53" s="38"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="42" t="s">
+      <c r="A53" s="33"/>
+      <c r="C53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="45" t="s">
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="O53" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
-      <c r="AA53" s="40"/>
+      <c r="AA53" s="34"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="38"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="45" t="s">
+      <c r="A54" s="33"/>
+      <c r="D54" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="45" t="s">
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="O54" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="40"/>
-    </row>
-    <row r="55" spans="1:27" ht="18">
-      <c r="A55" s="38"/>
-      <c r="B55" s="41" t="s">
+      <c r="AA54" s="34"/>
+    </row>
+    <row r="55" spans="1:27" ht="17.399999999999999">
+      <c r="A55" s="33"/>
+      <c r="B55" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="45" t="s">
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="O55" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-      <c r="AA55" s="40"/>
+      <c r="AA55" s="34"/>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="38"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="42" t="s">
+      <c r="A56" s="33"/>
+      <c r="C56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="40"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="33"/>
+      <c r="O56" s="12"/>
+      <c r="AA56" s="34"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="38"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="42" t="s">
+      <c r="A57" s="33"/>
+      <c r="C57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="45" t="s">
+      <c r="L57" s="34"/>
+      <c r="M57" s="33"/>
+      <c r="O57" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
-      <c r="AA57" s="40"/>
+      <c r="AA57" s="34"/>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="38"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="45" t="s">
+      <c r="A58" s="33"/>
+      <c r="D58" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="40"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="33"/>
+      <c r="AA58" s="34"/>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="38"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="45" t="s">
+      <c r="A59" s="33"/>
+      <c r="D59" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="24"/>
-      <c r="AA59" s="40"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="33"/>
+      <c r="AA59" s="34"/>
     </row>
     <row r="60" spans="1:27">
-      <c r="A60" s="38"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="42" t="s">
+      <c r="A60" s="33"/>
+      <c r="C60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="40"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="33"/>
+      <c r="AA60" s="34"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="47"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="47"/>
-      <c r="Y61" s="47"/>
-      <c r="Z61" s="47"/>
-      <c r="AA61" s="48"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="37"/>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="18" t="s">
@@ -11654,7 +10620,7 @@
       </c>
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="2:4" ht="18">
+    <row r="74" spans="2:4" ht="17.399999999999999">
       <c r="B74" s="13" t="s">
         <v>26</v>
       </c>
@@ -11750,7 +10716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="18">
+    <row r="95" spans="2:3" ht="17.399999999999999">
       <c r="B95" s="13" t="s">
         <v>27</v>
       </c>
@@ -11795,7 +10761,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="18">
+    <row r="104" spans="2:3" ht="17.399999999999999">
       <c r="B104" s="13" t="s">
         <v>239</v>
       </c>
@@ -11834,27 +10800,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z77"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="23.25">
+    <row r="2" spans="1:25" ht="22.8">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="23.25">
+    <row r="4" spans="1:25" ht="22.8">
       <c r="B4" t="s">
         <v>288</v>
       </c>
@@ -11875,7 +10841,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="18">
+    <row r="7" spans="1:25" ht="17.399999999999999">
       <c r="B7" s="21" t="s">
         <v>291</v>
       </c>
@@ -11887,294 +10853,189 @@
       <c r="B8" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
     </row>
     <row r="9" spans="1:25">
       <c r="B9" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30" t="s">
+      <c r="U9" s="40"/>
+      <c r="V9" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
     </row>
     <row r="10" spans="1:25">
       <c r="B10" s="3"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="52" t="s">
+      <c r="T10" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="U10" s="52"/>
-      <c r="V10" s="51" t="s">
+      <c r="U10" s="38"/>
+      <c r="V10" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
     </row>
     <row r="11" spans="1:25">
       <c r="B11" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="52" t="s">
+      <c r="T11" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="U11" s="52"/>
-      <c r="V11" s="51" t="s">
+      <c r="U11" s="38"/>
+      <c r="V11" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
     </row>
     <row r="12" spans="1:25">
       <c r="B12" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="52" t="s">
+      <c r="T12" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="U12" s="52"/>
-      <c r="V12" s="51" t="s">
+      <c r="U12" s="38"/>
+      <c r="V12" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
     </row>
     <row r="13" spans="1:25">
       <c r="B13" s="3"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="52" t="s">
+      <c r="T13" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="U13" s="52"/>
-      <c r="V13" s="51" t="s">
+      <c r="U13" s="38"/>
+      <c r="V13" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
     </row>
     <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>321</v>
       </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="52" t="s">
+      <c r="T14" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="U14" s="52"/>
-      <c r="V14" s="51" t="s">
+      <c r="U14" s="38"/>
+      <c r="V14" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-    </row>
-    <row r="15" spans="1:25" ht="23.25">
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+    </row>
+    <row r="15" spans="1:25" ht="22.8">
       <c r="B15" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="52" t="s">
+      <c r="T15" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="U15" s="52"/>
-      <c r="V15" s="51" t="s">
+      <c r="U15" s="38"/>
+      <c r="V15" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-    </row>
-    <row r="16" spans="1:25" ht="18">
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+    </row>
+    <row r="16" spans="1:25" ht="17.399999999999999">
       <c r="C16" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="52" t="s">
+      <c r="T16" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="U16" s="52"/>
-      <c r="V16" s="51" t="s">
+      <c r="U16" s="38"/>
+      <c r="V16" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-    </row>
-    <row r="17" spans="2:26">
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+    </row>
+    <row r="17" spans="2:25">
       <c r="C17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="52" t="s">
+      <c r="T17" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="U17" s="52"/>
-      <c r="V17" s="51" t="s">
+      <c r="U17" s="38"/>
+      <c r="V17" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-    </row>
-    <row r="18" spans="2:26" ht="18">
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+    </row>
+    <row r="18" spans="2:25" ht="17.399999999999999">
       <c r="C18" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-    </row>
-    <row r="19" spans="2:26">
+    </row>
+    <row r="19" spans="2:25">
       <c r="C19" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:25">
       <c r="C20" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="23.25">
+    <row r="21" spans="2:25" ht="22.8">
       <c r="B21" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-    </row>
-    <row r="22" spans="2:26">
+    </row>
+    <row r="22" spans="2:25">
       <c r="B22" s="12"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-    </row>
-    <row r="23" spans="2:26">
+    </row>
+    <row r="23" spans="2:25">
       <c r="B23" s="14"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-    </row>
-    <row r="24" spans="2:26">
+    </row>
+    <row r="24" spans="2:25">
       <c r="B24" s="14"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-    </row>
-    <row r="25" spans="2:26">
+    </row>
+    <row r="25" spans="2:25">
       <c r="B25" s="14"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-    </row>
-    <row r="26" spans="2:26">
+    </row>
+    <row r="26" spans="2:25">
       <c r="B26" s="14"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-    </row>
-    <row r="27" spans="2:26">
+    </row>
+    <row r="27" spans="2:25">
       <c r="B27" s="14"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-    </row>
-    <row r="28" spans="2:26">
+    </row>
+    <row r="28" spans="2:25">
       <c r="B28" s="14"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-    </row>
-    <row r="29" spans="2:26">
+    </row>
+    <row r="29" spans="2:25">
       <c r="B29" s="14"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-    </row>
-    <row r="30" spans="2:26">
+    </row>
+    <row r="30" spans="2:25">
       <c r="B30" s="14"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-    </row>
-    <row r="31" spans="2:26">
+    </row>
+    <row r="31" spans="2:25">
       <c r="B31" s="14"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-    </row>
-    <row r="33" spans="2:2" ht="18">
+    </row>
+    <row r="33" spans="2:2" ht="17.399999999999999">
       <c r="B33" s="13"/>
     </row>
     <row r="34" spans="2:2">
@@ -12207,17 +11068,17 @@
     <row r="45" spans="2:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="49" spans="2:21" ht="23.25">
+    <row r="49" spans="2:21" ht="22.8">
       <c r="B49" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="2:21" ht="23.25">
+    <row r="50" spans="2:21" ht="22.8">
       <c r="T50" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="2:21" ht="18">
+    <row r="51" spans="2:21" ht="17.399999999999999">
       <c r="C51" s="13" t="s">
         <v>296</v>
       </c>
@@ -12253,7 +11114,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="2:21" ht="23.25">
+    <row r="56" spans="2:21" ht="22.8">
       <c r="D56" s="14" t="s">
         <v>300</v>
       </c>
@@ -12280,56 +11141,56 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="2:21" ht="18">
+    <row r="60" spans="2:21" ht="17.399999999999999">
       <c r="C60" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="2:21" ht="30">
+    <row r="61" spans="2:21" ht="27.6">
       <c r="C61" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="T61" s="25" t="s">
+      <c r="T61" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="U61" s="25" t="s">
+      <c r="U61" s="24" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="2:21">
+    <row r="62" spans="2:21" ht="41.4">
       <c r="D62" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="T62" s="28">
+      <c r="T62" s="27">
         <v>0</v>
       </c>
-      <c r="U62" s="26" t="s">
+      <c r="U62" s="25" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="2:21">
+    <row r="63" spans="2:21" ht="55.2">
       <c r="D63" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="T63" s="29" t="s">
+      <c r="T63" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="U63" s="26" t="s">
+      <c r="U63" s="25" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="2:21">
+    <row r="64" spans="2:21" ht="27.6">
       <c r="D64" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="T64" s="29" t="s">
+      <c r="T64" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="U64" s="26" t="s">
+      <c r="U64" s="25" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="3:21" ht="23.25">
+    <row r="65" spans="3:21" ht="22.8">
       <c r="D65" s="14" t="s">
         <v>307</v>
       </c>
@@ -12342,7 +11203,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="3:21" ht="18">
+    <row r="67" spans="3:21" ht="17.399999999999999">
       <c r="C67" s="13" t="s">
         <v>308</v>
       </c>
@@ -12355,15 +11216,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="3:21" ht="18.75">
+    <row r="69" spans="3:21" ht="17.399999999999999">
       <c r="D69" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="T69" s="27" t="s">
+      <c r="T69" s="26" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="3:21" ht="18">
+    <row r="70" spans="3:21" ht="17.399999999999999">
       <c r="D70" s="14" t="s">
         <v>311</v>
       </c>
@@ -12379,7 +11240,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="3:21" ht="18">
+    <row r="72" spans="3:21" ht="17.399999999999999">
       <c r="D72" s="14" t="s">
         <v>313</v>
       </c>
@@ -12387,7 +11248,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="3:21" ht="18">
+    <row r="73" spans="3:21" ht="17.399999999999999">
       <c r="C73" s="13" t="s">
         <v>314</v>
       </c>
@@ -12403,7 +11264,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="3:21" ht="18">
+    <row r="75" spans="3:21" ht="17.399999999999999">
       <c r="C75" s="1" t="s">
         <v>316</v>
       </c>
@@ -12411,7 +11272,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="3:21" ht="18">
+    <row r="76" spans="3:21" ht="17.399999999999999">
       <c r="C76" s="13" t="s">
         <v>317</v>
       </c>
@@ -12426,16 +11287,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V9:Y9"/>
@@ -12444,28 +11295,38 @@
     <mergeCell ref="V12:Y12"/>
     <mergeCell ref="V13:Y13"/>
     <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="V17:Y17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" ht="22.8">
       <c r="B2" s="4" t="s">
         <v>375</v>
       </c>
@@ -12475,7 +11336,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="14.4">
       <c r="B4" s="1" t="s">
         <v>377</v>
       </c>
@@ -12490,7 +11351,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25">
+    <row r="7" spans="1:4" ht="22.8">
       <c r="B7" s="4" t="s">
         <v>380</v>
       </c>
@@ -12510,7 +11371,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="14.4">
       <c r="B11" s="1" t="s">
         <v>384</v>
       </c>
@@ -12520,12 +11381,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25">
+    <row r="13" spans="1:4" ht="22.8">
       <c r="D13" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18">
+    <row r="14" spans="1:4" ht="17.399999999999999">
       <c r="D14" s="13" t="s">
         <v>386</v>
       </c>
@@ -12535,12 +11396,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25">
+    <row r="16" spans="1:4" ht="22.8">
       <c r="D16" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18">
+    <row r="17" spans="2:4" ht="17.399999999999999">
       <c r="D17" s="13" t="s">
         <v>389</v>
       </c>
@@ -12565,7 +11426,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18">
+    <row r="22" spans="2:4" ht="17.399999999999999">
       <c r="D22" s="13" t="s">
         <v>394</v>
       </c>
@@ -12580,7 +11441,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18">
+    <row r="25" spans="2:4" ht="17.399999999999999">
       <c r="D25" s="13" t="s">
         <v>397</v>
       </c>
@@ -12600,7 +11461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="23.25">
+    <row r="29" spans="2:4" ht="22.8">
       <c r="D29" s="4" t="s">
         <v>401</v>
       </c>
@@ -12610,7 +11471,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="23.25">
+    <row r="31" spans="2:4" ht="22.8">
       <c r="B31" s="4" t="s">
         <v>403</v>
       </c>
@@ -12620,7 +11481,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="18">
+    <row r="33" spans="2:10" ht="17.399999999999999">
       <c r="B33" s="13" t="s">
         <v>405</v>
       </c>
@@ -12640,7 +11501,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="18">
+    <row r="37" spans="2:10" ht="17.399999999999999">
       <c r="B37" s="13" t="s">
         <v>409</v>
       </c>
@@ -12689,7 +11550,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="23.25">
+    <row r="43" spans="2:10" ht="22.8">
       <c r="B43" s="4" t="s">
         <v>413</v>
       </c>
@@ -12699,7 +11560,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="18">
+    <row r="45" spans="2:10" ht="17.399999999999999">
       <c r="C45" s="13" t="s">
         <v>415</v>
       </c>
@@ -12739,7 +11600,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="23.25">
+    <row r="53" spans="3:5" ht="22.8">
       <c r="C53" s="4" t="s">
         <v>423</v>
       </c>
@@ -12759,7 +11620,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="18">
+    <row r="57" spans="3:5" ht="17.399999999999999">
       <c r="E57" s="13" t="s">
         <v>258</v>
       </c>
@@ -12894,113 +11755,113 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="2:10" ht="23.25">
+    <row r="84" spans="2:10" ht="22.8">
       <c r="C84" s="4" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30" t="s">
+      <c r="C86" s="40"/>
+      <c r="D86" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30" t="s">
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="31" t="s">
+      <c r="C87" s="43"/>
+      <c r="D87" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31" t="s">
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="31" t="s">
+      <c r="C88" s="43"/>
+      <c r="D88" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31" t="s">
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31" t="s">
+      <c r="C89" s="41"/>
+      <c r="D89" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31" t="s">
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31" t="s">
+      <c r="C90" s="41"/>
+      <c r="D90" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31" t="s">
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="H86:J86"/>
     <mergeCell ref="H87:J87"/>
     <mergeCell ref="H88:J88"/>
     <mergeCell ref="H89:J89"/>
     <mergeCell ref="H90:J90"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
